--- a/Desktop/Ejemplo/Ejemplogit.xlsx
+++ b/Desktop/Ejemplo/Ejemplogit.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>bcx</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>bxcvbxcvbvxc</t>
+  </si>
+  <si>
+    <t>gfdsgdsfg</t>
   </si>
 </sst>
 </file>
@@ -94,12 +97,17 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AF4B47C3-1A85-40BE-8FE3-454BB0630B46}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{34209D91-4043-4738-ABB9-090570C934E9}" diskRevisions="1" revisionId="12" version="2">
   <header guid="{AF4B47C3-1A85-40BE-8FE3-454BB0630B46}" dateTime="2018-10-24T16:27:01" maxSheetId="2" userName="Rama" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{34209D91-4043-4738-ABB9-090570C934E9}" dateTime="2018-10-24T23:19:54" maxSheetId="2" userName="Rama" r:id="rId2" minRId="1" maxRId="12">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -107,8 +115,97 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1" sId="1" eol="1" ref="A5:XFD5" action="insertRow"/>
+  <rcc rId="2" sId="1">
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>gfdsgdsfg</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="1">
+    <nc r="B5">
+      <v>223</v>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1">
+    <nc r="C5">
+      <v>321312</v>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="1">
+    <oc r="B4">
+      <v>5465</v>
+    </oc>
+    <nc r="B4">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="1">
+    <oc r="B3">
+      <v>16516</v>
+    </oc>
+    <nc r="B3">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="1">
+    <oc r="B2">
+      <v>32123</v>
+    </oc>
+    <nc r="B2">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="1">
+    <oc r="B1">
+      <v>123</v>
+    </oc>
+    <nc r="B1">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="1">
+    <oc r="C1">
+      <v>654</v>
+    </oc>
+    <nc r="C1">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="10" sId="1">
+    <oc r="C2">
+      <v>446</v>
+    </oc>
+    <nc r="C2">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="1">
+    <oc r="C3">
+      <v>5646</v>
+    </oc>
+    <nc r="C3">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="1">
+    <oc r="C4">
+      <v>213</v>
+    </oc>
+    <nc r="C4">
+      <v>2</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{34209D91-4043-4738-ABB9-090570C934E9}" name="Rama" id="-904422858" dateTime="2018-10-24T23:19:17"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>654</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -398,10 +495,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>32123</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>446</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -409,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16516</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5646</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -420,10 +517,21 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5465</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>213</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>223</v>
+      </c>
+      <c r="C5">
+        <v>321312</v>
       </c>
     </row>
   </sheetData>

--- a/Desktop/Ejemplo/Ejemplogit.xlsx
+++ b/Desktop/Ejemplo/Ejemplogit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>bcx</t>
   </si>
   <si>
-    <t>bvcbx</t>
-  </si>
-  <si>
     <t>bvxcbvxc</t>
   </si>
   <si>
@@ -42,6 +39,39 @@
   </si>
   <si>
     <t>gfdsgdsfg</t>
+  </si>
+  <si>
+    <t>gsdfgsdf</t>
+  </si>
+  <si>
+    <t>gdfgsd</t>
+  </si>
+  <si>
+    <t>fgsdfgfsd</t>
+  </si>
+  <si>
+    <t>gsdfgsdfgfs</t>
+  </si>
+  <si>
+    <t>gsdfgsgsdf</t>
+  </si>
+  <si>
+    <t>sdfgsdgsdf</t>
+  </si>
+  <si>
+    <t>sdgsgsdfg</t>
+  </si>
+  <si>
+    <t>sgsdfgsdfg</t>
+  </si>
+  <si>
+    <t>gsdfgsdg</t>
+  </si>
+  <si>
+    <t>dfsgsdf</t>
+  </si>
+  <si>
+    <t>hghhhg</t>
   </si>
 </sst>
 </file>
@@ -97,7 +127,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{34209D91-4043-4738-ABB9-090570C934E9}" diskRevisions="1" revisionId="12" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{71A980BF-6FA0-4B1B-85EE-6314D6DAF89B}" diskRevisions="1" revisionId="25" version="2">
   <header guid="{AF4B47C3-1A85-40BE-8FE3-454BB0630B46}" dateTime="2018-10-24T16:27:01" maxSheetId="2" userName="Rama" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -108,6 +138,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{71A980BF-6FA0-4B1B-85EE-6314D6DAF89B}" dateTime="2018-10-24T23:27:16" maxSheetId="2" userName="Rama" r:id="rId3" minRId="13" maxRId="25">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -202,10 +237,111 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="13" sId="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>gsdfgsdf</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>gdfgsd</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="1">
+    <nc r="G3" t="inlineStr">
+      <is>
+        <t>fgsdfgfsd</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="1">
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>gsdfgsdfgfs</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="1">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>gsdfgsgsdf</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="1">
+    <nc r="F7" t="inlineStr">
+      <is>
+        <t>sdfgsdgsdf</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="1">
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>sdgsgsdfg</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="1">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>sgsdfgsdfg</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="1">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>gsdfgsdg</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="1">
+    <nc r="F5" t="inlineStr">
+      <is>
+        <t>dfsgsdf</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="1">
+    <oc r="A3" t="inlineStr">
+      <is>
+        <t>bvcbx</t>
+      </is>
+    </oc>
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>hghhhg</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="1">
+    <oc r="B4">
+      <v>1</v>
+    </oc>
+    <nc r="B4">
+      <v>2014</v>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="1">
+    <oc r="C2">
+      <v>2</v>
+    </oc>
+    <nc r="C2">
+      <v>24342342</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{34209D91-4043-4738-ABB9-090570C934E9}" name="Rama" id="-904422858" dateTime="2018-10-24T23:19:17"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,15 +607,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,20 +626,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>24342342</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -511,27 +653,57 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2014</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>223</v>
       </c>
       <c r="C5">
         <v>321312</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
